--- a/BasicMod-master/永久形态.xlsx
+++ b/BasicMod-master/永久形态.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>卡牌</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>一辈子：永久形态，你的瞬间牌使用后不会从牌组中移除</t>
+  </si>
+  <si>
+    <t>微小的星屑</t>
+  </si>
+  <si>
+    <t>获得1点闪耀，如果有10点闪耀获得永久形态，该形态在玩家死亡时给予玩家星盾</t>
+  </si>
+  <si>
+    <t>2点闪耀</t>
   </si>
 </sst>
 </file>
@@ -973,13 +982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="73.8181818181818" customWidth="1"/>
@@ -1017,6 +1026,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
